--- a/cs-models/eai/dam/nga.gov/common.xlsx
+++ b/cs-models/eai/dam/nga.gov/common.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-eclipse\cs-models-new\models\eai\dam\nga.gov\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="120">
   <si>
     <t>Property name</t>
   </si>
@@ -122,9 +127,6 @@
   </si>
   <si>
     <t>E</t>
-  </si>
-  <si>
-    <t>an..150</t>
   </si>
   <si>
     <t>The meaningful name of the image.</t>
@@ -718,7 +720,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -729,7 +731,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,7 +915,7 @@
         <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
@@ -922,22 +924,22 @@
         <v>29</v>
       </c>
       <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
         <v>37</v>
       </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>38</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>39</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>40</v>
-      </c>
-      <c r="O4" t="s">
-        <v>41</v>
       </c>
       <c r="P4" t="s">
         <v>22</v>
@@ -972,22 +974,22 @@
         <v>29</v>
       </c>
       <c r="J5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" t="s">
         <v>42</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
         <v>43</v>
       </c>
-      <c r="L5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>44</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>45</v>
-      </c>
-      <c r="O5" t="s">
-        <v>46</v>
       </c>
       <c r="P5" t="s">
         <v>22</v>
@@ -995,10 +997,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
         <v>47</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1013,28 +1015,28 @@
         <v>19</v>
       </c>
       <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
         <v>49</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
         <v>50</v>
       </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
         <v>51</v>
       </c>
-      <c r="K6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>52</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>53</v>
-      </c>
-      <c r="N6" t="s">
-        <v>54</v>
       </c>
       <c r="O6" t="s">
         <v>22</v>
@@ -1045,10 +1047,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1060,31 +1062,31 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
         <v>56</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" t="s">
         <v>58</v>
       </c>
-      <c r="K7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>59</v>
-      </c>
-      <c r="N7" t="s">
-        <v>60</v>
       </c>
       <c r="O7" t="s">
         <v>22</v>
@@ -1095,10 +1097,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1107,27 +1109,27 @@
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H8" s="5">
         <v>400</v>
       </c>
       <c r="J8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -1136,7 +1138,7 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
@@ -1148,28 +1150,28 @@
         <v>20</v>
       </c>
       <c r="H9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" t="s">
         <v>63</v>
       </c>
-      <c r="I9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" t="s">
+        <v>97</v>
+      </c>
+      <c r="N9" t="s">
         <v>64</v>
       </c>
-      <c r="K9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" t="s">
-        <v>98</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>65</v>
-      </c>
-      <c r="O9" t="s">
-        <v>66</v>
       </c>
       <c r="P9" t="s">
         <v>22</v>
@@ -1177,7 +1179,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -1192,42 +1194,42 @@
         <v>19</v>
       </c>
       <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" t="s">
         <v>68</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" t="s">
+        <v>101</v>
+      </c>
+      <c r="N10" t="s">
         <v>69</v>
       </c>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" t="s">
-        <v>102</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>70</v>
       </c>
-      <c r="O10" t="s">
-        <v>71</v>
-      </c>
       <c r="P10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -1242,34 +1244,34 @@
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" t="s">
         <v>73</v>
       </c>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" t="s">
+        <v>98</v>
+      </c>
+      <c r="N11" t="s">
         <v>74</v>
       </c>
-      <c r="K11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" t="s">
-        <v>99</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>75</v>
-      </c>
-      <c r="O11" t="s">
-        <v>76</v>
       </c>
       <c r="P11" t="s">
         <v>22</v>
@@ -1277,10 +1279,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1295,28 +1297,28 @@
         <v>19</v>
       </c>
       <c r="G12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" t="s">
         <v>78</v>
       </c>
-      <c r="H12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" t="s">
         <v>79</v>
       </c>
-      <c r="K12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
+        <v>99</v>
+      </c>
+      <c r="N12" t="s">
         <v>80</v>
-      </c>
-      <c r="M12" t="s">
-        <v>100</v>
-      </c>
-      <c r="N12" t="s">
-        <v>81</v>
       </c>
       <c r="O12" t="s">
         <v>22</v>
@@ -1327,49 +1329,49 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" t="s">
         <v>82</v>
       </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" t="s">
         <v>83</v>
       </c>
-      <c r="H13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" t="s">
         <v>84</v>
       </c>
-      <c r="K13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" t="s">
         <v>85</v>
       </c>
-      <c r="M13" t="s">
-        <v>22</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>86</v>
-      </c>
-      <c r="O13" t="s">
-        <v>87</v>
       </c>
       <c r="P13" t="s">
         <v>22</v>
@@ -1377,7 +1379,7 @@
     </row>
     <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>17</v>
@@ -1389,35 +1391,35 @@
         <v>28</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="J14" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="N14" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="O14" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>28</v>
@@ -1426,24 +1428,24 @@
         <v>28</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>22</v>
@@ -1476,24 +1478,24 @@
         <v>22</v>
       </c>
       <c r="L16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>22</v>
@@ -1526,10 +1528,10 @@
         <v>22</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>22</v>
@@ -1538,12 +1540,12 @@
         <v>22</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>22</v>
@@ -1576,24 +1578,24 @@
         <v>22</v>
       </c>
       <c r="L18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>22</v>
@@ -1626,10 +1628,10 @@
         <v>22</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>22</v>
@@ -1638,7 +1640,7 @@
         <v>22</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
